--- a/results/Cartpole/T18/Averages_DQN.xlsx
+++ b/results/Cartpole/T18/Averages_DQN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Q-Learning\results\Cartpole\T18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA_Projecten\Q-Learning\results\Cartpole\T18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FDE9BD-8C10-413E-BFDF-B58B43CA348C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F258E5F-74B8-4FFA-800F-8AD8B72B444A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Average Q</t>
   </si>
@@ -595,7 +595,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3593,7 +3593,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3651,7 +3651,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3693,7 +3693,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3733,7 +3733,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4312,10 +4312,10 @@
       <xdr:rowOff>70484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>80009</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4642,4813 +4642,4813 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A50" sqref="A1:XFD50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB41" sqref="AB41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-0.37423172999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-9.0495883999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-0.21138108</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-0.2026848</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.13515005999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-0.15318449000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-0.12077329000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-9.0203969999999994E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-0.39762135999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-0.39333802000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-0.4587849</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-0.20118126</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-0.54855640000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-0.30555597000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-0.40235543000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-0.45050424</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-0.4285988</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-0.38346940000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-0.37824553</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-0.21427998000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-0.17866009999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-0.44587132000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-0.28610091999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-0.32648571999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-0.31137039999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-0.22218107000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-0.47739156999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-0.38073780000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-0.51908620000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-0.34292549999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-0.32863360000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-0.31608399999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-0.1606254</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-0.45031342000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-0.32086682</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-0.34197673000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-0.47093213</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-0.28082940000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-0.33749783</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-0.21232069000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-0.22539482999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-0.34524917999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-0.23351097000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-0.19232793000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-0.29439142000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-0.42085742999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-0.47696664999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-0.46636151999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-0.44737682000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-0.37027827000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-0.30188199999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-0.22495234</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-0.21816242</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-0.23256363999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-0.16424796</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-0.26011332999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-0.24028939999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-0.19752662000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-0.21257342000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-0.35589947999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-0.18569796999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-0.17690611000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-0.15840641999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-0.18674661000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-0.22019327</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-0.29117219999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-0.23638729999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-0.12549455000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-0.18089682000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-0.28580763999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-0.20029564</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-0.27783354999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-0.20874079000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-0.12893822999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-0.22671777000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-0.14061319999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-0.20617935000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-0.16939445</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-0.22693773</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-0.18950425000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-0.18790515999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-0.17660105000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-8.8103384000000007E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-0.18479029999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-0.23591113</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-0.12963209000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>-0.15912622000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>-0.15954661000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>-0.11929457</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>-4.3262753E-5</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>-0.11712652</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>-0.16417068000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>-0.12421806000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>-8.5688050000000002E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>-0.16510388000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>-0.118059866</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>-3.8722705000000003E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>-9.5614746E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>-0.12925692</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>-0.11289572</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>-0.15029986000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>-0.10951814999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>-0.10581155</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>-5.6839809999999998E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>-6.9120966000000006E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>-6.2465880000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>-3.2884969999999999E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>-2.0067068E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>-1.751047E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>-1.6750497000000001E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>-6.5536380000000001E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>-1.0248314999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>7.0637519999999995E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2.8165806000000002E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3.3015062000000001E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4.6180965999999997E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1.3383236E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>7.8324169999999995E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>8.9105945000000006E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>-9.2653354000000001E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1.4547713E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>-4.7523966000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1.1520992000000001E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2.9098636000000001E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4.2170673000000002E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5.0283936000000001E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>8.9127310000000001E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1.0483760999999999E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6.0918704000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1.0799251500000001E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6.8914214999999997E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6.2962480000000001E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>-2.5594630000000001E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1.5538010000000001E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>5.5002420000000003E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1.2022925E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>5.2765163000000005E-4</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3.2840992999999999E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4.1528596000000003E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6.9150682999999996E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>-5.1538950000000004E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>9.3053749999999994E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2.6636033999999999E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1.2315922999999999E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2.6042118999999999E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>3.5740666000000001E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2.4762029000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4.2915937000000001E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1.8389907E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2.7913093999999999E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2.8749475E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2.4959173000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2.3906361000000001E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>3.6894110000000001E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1.8212516000000002E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1.8664190000000001E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2.7078242999999998E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2.2540016E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2.7016990000000001E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>-7.7695426999999997E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1.35905E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1.6126380999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1.9201612E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1.6321347999999999E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>9.6926960000000006E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1.7155033E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>3.2236586999999997E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7.5051579999999996E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1.7156046000000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1.4354957E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1.7846193E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>8.5898499999999996E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1.8541748E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1.9174238999999999E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2.059305E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1.5530159999999999E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1.7293152999999999E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1.9049284999999999E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1.421215E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2.4066648E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>6.2927794999999998E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>-1.32524455E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1.6748682000000001E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1.0202569999999999E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1.0284946999999999E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2.1787997E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>9.7164980000000005E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1.1901910999999999E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1.9266313E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2.5660088000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2.423003E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1.1953942E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>7.0649288000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2.3041860000000001E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>8.1800724999999998E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>3.2423586000000001E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1.7472242999999998E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1.9917527000000001E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2.3926215000000001E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>5.8683700000000004E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1.5302013999999999E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1.3000839E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2.7951212999999999E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>7.9525810000000002E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1.763027E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1.3474567E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1.9287803999999999E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2.2938585000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1.6883120000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1.6963000999999998E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1.5890899999999999E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1.5925412999999999E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1.9516535000000002E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1.5187193E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1.4763494E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1.2760107E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1.9888684E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1.4662947000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1.3727659E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1.9911643E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2.1105004E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2.1098740000000001E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1.3771233000000001E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1.2957934000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1.14635555E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1.7019194000000001E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1.4765446E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1.6198143000000002E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1.5805389999999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>9.2796179999999999E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1.2434518E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1.1403201E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>8.1848449999999996E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>6.6692990000000001E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1.3092373500000001E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2.2250010000000001E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>9.2979010000000008E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1.2166572E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1.1681071499999999E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2.0510895000000001E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1.5971875E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>3.0632295E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1.0721161E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>8.6029709999999992E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1.2791123999999999E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1.6793822999999999E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1.6691754E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>9.8536119999999994E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1.1198303999999999E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1.881379E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1.5453814999999999E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2.1894598000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1.7313532999999999E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1.1028174E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1.5603245999999999E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1.4874724000000001E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1.1097513999999999E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2.3298289999999999E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1.2332717E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>6.3331936999999998E-3</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1.4684703E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1.2845428000000001E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1.5910802000000002E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1.1419471E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1.5159858999999999E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>7.6086167000000001E-3</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1.1965529000000001E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1.6279839000000001E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2.0193005E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1.0845197000000001E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1.3594126999999999E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1.9654093000000001E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1.0429804000000001E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1.5676828E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>7.9891860000000006E-3</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1.5078563E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1.5438672000000001E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1.60263E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1.0877361E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>3.8923997999999998E-3</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1.0281136999999999E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>7.1622124000000004E-3</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1.5425484000000001E-3</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>3.4994983999999999E-3</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1.4132047E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>8.8470670000000001E-3</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1.2705848E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>6.8047092999999996E-3</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1.1434260999999999E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1.4205285E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1.3116859999999999E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>9.7985710000000007E-3</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1.6491084999999999E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>9.5522669999999997E-3</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1.2504803E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>9.0499450000000002E-3</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1.4369120000000001E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1.5648063E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1.1103384000000001E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1.8348018000000001E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1.2411675E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1.5861178E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1.3472102999999999E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1.3179569E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1.2140890999999999E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1.4607175999999999E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1.6683394000000001E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1.0519779999999999E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1.3076109000000001E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1.6237887999999999E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1.1546633000000001E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1.6382170000000001E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1.5541108E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>9.3742679999999998E-3</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1.6277801000000001E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2.0127354E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1.5053142E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2.1020984E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1.8664864999999999E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1.9850174000000002E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1.7549981999999999E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>2.1048067E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1.7046182999999999E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1.6782109E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1.4579873E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1.7881878E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1.3695993E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>-1.4254922E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>2.0123439999999999E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1.7224742000000001E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1.5639351999999999E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2.0076864999999999E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1.8821635999999999E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1.7365780000000001E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1.7788319E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1.6435828E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1.3899764E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1.7262309999999999E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1.8120127E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>2.3475843999999999E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2.1779674999999998E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1.5254848999999999E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1.4268752000000001E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1.8772066E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1.0898537999999999E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1.528087E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1.9238878000000001E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>4.4911005999999998E-3</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>-0.28141156000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>-3.2132913000000002E-3</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1.4599536E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1.1608993E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1.5723651000000002E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2.0495553E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1.8351494999999999E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1.8823657000000001E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2.4736755999999999E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1.7825855000000002E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1.6917357000000001E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>2.0482667E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>2.2108497000000001E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1.6270656000000001E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1.6454356E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2.2244079E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1.9672815E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>2.1008948E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1.9180448999999999E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1.7585829000000001E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1.8218257000000002E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>9.9420770000000006E-3</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1.8159696999999999E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1.6667364E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1.3039014E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1.9690637E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2.1124672000000001E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>7.3769385999999998E-3</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1.9029357E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1.6705190000000002E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1.8833487999999999E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1.8258224999999999E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2.3158733000000001E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2.3608262000000001E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1.4034977000000001E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1.5603028999999999E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1.4684226E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2.4623453999999999E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1.8710600000000001E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1.7538125000000002E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1.4241527E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1.240285E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1.1276492000000001E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1.0832395E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2.6252866E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2.3889797000000001E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1.5072736999999999E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2.1474185999999999E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1.9478473999999999E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1.6369145000000002E-2</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1.8041827E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>8.9629059999999997E-3</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1.8387863000000001E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1.8149838000000001E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1.7234743E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1.9452161999999999E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1.3671766E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1.4432498E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1.1916959E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>2.2828913999999999E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1.7560030000000001E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1.9879180999999999E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1.2913561E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1.7899584E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1.8769257000000001E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>2.2445302E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2.5184828999999999E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2.0774303000000001E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1.9335930000000001E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1.17660705E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2.1823984000000001E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2.1203580999999999E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2.1598530000000001E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2.3473833E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1.2616616000000001E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>1.9812837E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>1.4945903999999999E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2.1674242E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2.2091288000000001E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2.2253864000000002E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>1.4889434999999999E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2.0264296000000001E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>1.9744088999999999E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>1.2788347E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>1.6275669999999999E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2.5024310000000001E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2.1955142E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2.8032074000000001E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>1.654622E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>1.9101653E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>1.7837510000000001E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>1.7890171999999999E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>1.7262824E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>1.5082976999999999E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2.5231364999999999E-2</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>1.1405403999999999E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>1.9158524999999999E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>1.9970282999999998E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>1.6917694E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2.2416419999999999E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2.0623775E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2.2684019999999999E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>1.9124494999999998E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2.6033157000000001E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2.0169177999999999E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>1.8173617999999999E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>1.5193237E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>1.7086014E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2.3838000000000002E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2.5758142000000001E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>1.5114285999999999E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2.6385474999999999E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>1.9508642999999999E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2.3176635000000001E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2.4279049E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>1.3142787E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2.3264725E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>1.7270647E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>1.965445E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2.4156347000000002E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>1.8856082E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2.5420656E-2</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>9.1643980000000007E-3</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>1.8205564E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2.3481233000000001E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>9.9102849999999996E-3</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>3.0455251999999999E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>1.4797875E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>1.9183598E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>2.4065504000000001E-2</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>1.527219E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>4.8999619999999999E-3</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>1.9411432999999999E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>2.1903148000000001E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>2.5982116999999999E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>2.1502021999999999E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>2.4960836E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>1.9307682E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>2.7451135000000002E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>2.4250944999999999E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2.7322837999999999E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>1.8364071999999999E-2</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>2.7633976000000001E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>1.7671355999999999E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>2.4759857E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>1.5546369000000001E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>1.7429322000000001E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>1.801001E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>1.6117958000000002E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>1.7395625000000001E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>1.9139799999999998E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>1.4137703999999999E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>1.4391216E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>2.6176600000000001E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>1.7850831000000001E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>2.1971628E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>1.9087535999999999E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>1.9085715999999999E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>1.5844736000000002E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>1.4957244999999999E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>1.7561534E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>1.7271819000000001E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>1.9137178000000001E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>1.3339980499999999E-2</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>2.2173008000000001E-2</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>1.4469749E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>1.8789764E-2</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>2.2948502999999999E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>2.5002937999999999E-2</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>2.106483E-2</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>2.1692999000000001E-2</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>1.8606171000000001E-2</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>1.7400954E-2</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>1.3864934000000001E-2</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>2.0206451E-2</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>2.5707799999999999E-2</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>1.5362463E-2</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>1.5746465000000001E-2</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>2.7573159999999999E-2</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>8.9728910000000002E-3</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>1.8256305E-2</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>2.6896076000000001E-2</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>1.8598877E-2</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>1.8469207000000001E-2</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>1.5065729E-2</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>1.9940179999999998E-2</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>1.8306967E-2</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>7.8807449999999998E-3</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>1.5671190000000002E-2</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>1.7822351E-2</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>2.4077086000000001E-2</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>2.2448596000000001E-2</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>1.7921979000000001E-2</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>1.4829537E-2</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>1.7187254999999999E-2</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>1.7311284E-2</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>1.6756960000000001E-2</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>2.1104301999999998E-2</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>1.9536119000000001E-2</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>1.4710548E-2</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>2.1629804999999998E-2</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>9.6850740000000001E-3</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>1.4721738E-2</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>1.6673671000000001E-2</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>9.927969E-3</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>1.4478217999999999E-2</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>2.5432435999999999E-2</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>1.1283842000000001E-2</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>1.1248991E-2</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>8.5179190000000005E-3</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>1.923308E-2</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>1.4460051E-2</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>1.6615871000000001E-2</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>1.443004E-2</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>1.9863524E-2</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>1.8925278E-2</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>1.4322221E-2</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>2.1077983000000002E-2</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>1.4835918E-2</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>1.602228E-2</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>2.0563680000000001E-2</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>9.0648489999999998E-3</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>1.7150017E-2</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>1.6361084000000001E-2</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>1.4884524999999999E-2</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>1.2848787E-2</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>1.7288359999999999E-2</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>1.2649998000000001E-2</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>1.552303E-2</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>1.3195132E-2</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>1.6101357E-2</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>1.0199272000000001E-2</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>1.40935965E-2</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>1.4245327E-2</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>1.3003776999999999E-2</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>9.0679100000000002E-3</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>1.6266154000000001E-2</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>-1.4050836E-5</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>1.7991334000000001E-2</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>9.2200979999999995E-3</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>8.5355199999999996E-3</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>1.2336681E-2</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>1.3303908999999999E-2</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>1.3326128E-2</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>1.25297615E-2</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>1.2940515E-2</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>1.1489367E-2</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>1.6047746000000002E-2</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>1.1122692E-2</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>1.7926991E-2</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>6.7304247000000003E-3</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>1.0666907E-2</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>1.2055779000000001E-2</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>1.1732157E-2</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>1.7822332999999999E-2</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>1.2268995E-2</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>1.5721688000000001E-2</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>1.1686716999999999E-2</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>1.0462368E-2</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>1.3064691999999999E-2</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>1.5467606E-2</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>-1.2694810000000001E-2</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>1.8039787000000002E-2</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>1.8501982E-2</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>1.8437571999999999E-2</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>1.7614979999999999E-2</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>9.0262699999999994E-3</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>1.7877858E-2</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>1.3377261E-2</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>1.5092115E-2</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>1.9029460000000002E-2</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>1.4830362E-2</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>1.4700616999999999E-2</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>6.562549E-3</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>9.4874969999999993E-3</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>1.8320380000000001E-2</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>1.7568891999999999E-2</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>2.0339841000000001E-2</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>1.9924600000000001E-2</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>1.6448999999999998E-2</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>2.1596704000000001E-2</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>1.7638553000000001E-2</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>1.3125881000000001E-2</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>1.2695735999999999E-2</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>1.3418413000000001E-2</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>1.3402290000000001E-2</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>1.3351464E-2</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>1.1908346E-2</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>1.5107885999999999E-2</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>1.0030963E-2</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>1.7263397999999999E-2</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>1.5633129999999999E-2</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>1.049227E-2</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>1.5966963000000001E-2</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>1.6518242999999998E-2</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>8.2824409999999998E-3</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>1.19282E-2</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>1.0295476E-2</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>1.0001576999999999E-2</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>6.6625729999999998E-3</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>1.2957903E-2</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>1.308017E-2</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>1.3878694E-2</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>1.1488748E-2</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>1.8383047E-2</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>1.2416613999999999E-2</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>7.8138180000000002E-3</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>3.9286699999999998E-4</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>1.1153457E-2</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>1.279366E-2</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>1.2499731E-2</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>4.8852367000000001E-3</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>6.6428709999999998E-3</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>1.3711157999999999E-2</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>7.1217579999999997E-3</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>1.4617649999999999E-2</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>9.4085539999999995E-3</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>8.1827759999999992E-3</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>1.4129881E-2</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>1.2956552E-2</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>9.3087870000000007E-3</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>7.7848450000000003E-3</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>7.8168609999999996E-3</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>5.6360485E-3</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>1.4716296E-2</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>6.3200597999999997E-3</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>1.4536395000000001E-2</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>1.0487563E-2</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>1.5498204E-2</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>1.2654297E-2</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>1.137121E-2</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>1.1580808999999999E-2</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>1.2017527E-2</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>5.2094534000000003E-3</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>1.2326254E-2</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>7.378122E-3</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>1.7190495E-3</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>8.0281399999999996E-3</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>8.2153999999999994E-3</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>1.1050763999999999E-2</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>7.1590085999999999E-3</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>1.0716035E-2</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>1.3805486E-2</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>1.126978E-2</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>1.3273572000000001E-2</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>6.3646919999999999E-3</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>1.07656205E-2</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>9.6637470000000003E-3</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>7.1053089999999998E-3</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>1.3655680999999999E-2</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>1.0200651999999999E-2</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>1.2794411E-2</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>1.0762242999999999E-2</v>
       </c>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>1.0748137E-2</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>2.6886223E-3</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>1.4694303000000001E-2</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>9.1067519999999992E-3</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>1.0066446999999999E-2</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>1.0390534999999999E-2</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>1.1384421E-2</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>1.0886306E-2</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>4.6224109999999999E-3</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>3.1624650000000002E-3</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>8.5427330000000003E-3</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>9.8488289999999999E-3</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>1.240346E-2</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>1.5014698999999999E-2</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>9.6100920000000006E-3</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>8.5476449999999995E-3</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>1.1748099999999999E-2</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>1.2739967E-2</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>1.8286416E-2</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>1.1470416000000001E-2</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>7.1176640000000001E-3</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>2.0988045999999999E-3</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>8.7249289999999993E-3</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>1.3661243E-2</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>9.0929605000000004E-3</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>1.3530476E-2</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>4.9341045000000005E-4</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>1.1109454E-2</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>1.2854068999999999E-2</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>1.1929410499999999E-2</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>1.2499555000000001E-2</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>9.2482369999999994E-3</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>6.6451360000000003E-3</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>1.2503207000000001E-2</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>9.8414769999999995E-3</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>9.4726830000000008E-3</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>1.2019825E-2</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>1.2972974999999999E-2</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>1.3542428E-2</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>9.6411799999999992E-3</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>1.0724104999999999E-2</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>9.5981299999999999E-3</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>1.22209815E-2</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>7.2372640000000002E-3</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>1.2757449000000001E-2</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>1.4122470999999999E-2</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>6.731023E-3</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>9.2891850000000002E-3</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>8.4915660000000007E-3</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>1.6183508999999999E-2</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>1.5385483E-2</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>8.8612440000000008E-3</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>1.1535737000000001E-2</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>1.1160546E-2</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>6.6986140000000003E-3</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>5.0655630000000004E-3</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>1.2845898999999999E-2</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>6.3740969999999996E-3</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>1.188674E-2</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>9.5574279999999998E-3</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>9.1302029999999999E-3</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>1.1690852999999999E-2</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>7.9330259999999993E-3</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>1.2072415E-2</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>4.9533714E-3</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>1.2510627999999999E-2</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>8.7765510000000005E-3</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>1.6356671E-2</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>-2.1357999000000001E-4</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>1.5375626E-2</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>1.1458513E-2</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>6.0055170000000001E-3</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>9.9394684999999997E-3</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>1.2675443E-2</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>1.5358864999999999E-2</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>1.22817485E-2</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>1.8535366000000001E-2</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>1.4745822E-2</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>1.841015E-2</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>1.5996546E-2</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>1.0446725E-2</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>6.3054729999999998E-3</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>1.3983427999999999E-2</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>1.2593116999999999E-2</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>1.2483510999999999E-2</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>1.2383793000000001E-2</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>1.1580623E-2</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>1.2045617999999999E-2</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>1.3914266E-2</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>1.2517125E-2</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>1.1709175E-2</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>8.3742079999999993E-3</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>1.6432306000000001E-2</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>1.2786591999999999E-2</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>1.0034306E-2</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>1.20911235E-2</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>1.9575017E-2</v>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>1.1478697E-2</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>1.26241185E-2</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>1.6016665999999999E-2</v>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>1.434653E-2</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>4.1603576000000001E-3</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>8.5960299999999993E-3</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>1.4259784500000001E-2</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>-7.5883639999999996E-4</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>7.5491163999999999E-3</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>1.6238691E-2</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>1.1540626E-2</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>1.0231512999999999E-2</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>1.0516770999999999E-2</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>1.6104322000000001E-2</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>1.164223E-2</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>8.8876379999999998E-3</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>5.8594933E-3</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>1.4107913E-2</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>3.5378034000000001E-3</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>9.4627789999999993E-3</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>7.5658336000000003E-3</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>6.7137344999999996E-3</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>9.3504674999999992E-3</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>6.1029400000000003E-3</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>7.4856285999999996E-3</v>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>6.1868844000000003E-3</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>5.0630323E-3</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>1.0053868000000001E-2</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>6.4994090000000003E-3</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>6.2897780000000002E-3</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>6.5191349999999997E-3</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>1.4803626E-2</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>1.1166458000000001E-2</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>9.0086309999999996E-3</v>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>9.9151069999999994E-3</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>3.3847909999999998E-3</v>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>3.4761974E-3</v>
       </c>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>3.760247E-3</v>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>8.5527559999999999E-3</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>5.1480110000000001E-3</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>7.3284200000000004E-3</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>9.6858110000000008E-3</v>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>2.0010781999999999E-4</v>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>-1.3421386000000001E-3</v>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>6.4234319999999998E-3</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>7.7452210000000001E-3</v>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>7.7420789999999998E-3</v>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>9.6271829999999992E-3</v>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>7.0415525999999997E-3</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>1.1566256E-2</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>2.8657562000000002E-3</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>5.0123090000000004E-3</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>3.8965902999999998E-3</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>1.0513E-2</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>1.4746211E-2</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>9.0708974999999994E-3</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>2.2798003999999999E-3</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>-2.7348083000000001E-3</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>-1.1675626E-3</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>5.8111227E-3</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>3.9780579999999996E-3</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>2.5140335999999999E-3</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862">
         <v>6.5739695000000004E-3</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863">
         <v>4.2453179999999997E-3</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864">
         <v>8.4851660000000006E-3</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>9.8489170000000004E-3</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866">
         <v>7.9190460000000008E-3</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867">
         <v>1.1028969E-2</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868">
         <v>-2.3681890000000001E-3</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>1.2343233E-2</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>1.209698E-2</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>4.8866389999999999E-3</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>1.1697059500000001E-2</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>-6.8010240000000001E-3</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>1.298873E-2</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>5.6010764000000001E-3</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>3.9385929999999998E-3</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>9.1595970000000002E-3</v>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>9.8929699999999992E-3</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>1.7933553E-4</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>1.4879836E-2</v>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>7.0542265E-3</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>1.4249899E-2</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>9.9070165000000009E-3</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>1.7401639E-3</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>8.2773120000000002E-3</v>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>2.065465E-2</v>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>1.9035460000000001E-2</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>8.1376439999999994E-3</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>1.3956919999999999E-2</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>8.8780200000000004E-3</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>5.8986380000000003E-3</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>8.3838119999999992E-3</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>9.5637199999999995E-3</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>5.2951737E-3</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>1.1836565E-2</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>2.8293303999999998E-2</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>5.96994E-3</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>3.2054330000000002E-3</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899">
         <v>1.2472643E-2</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900">
         <v>2.0301828000000001E-2</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901">
         <v>1.5586803999999999E-2</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902">
         <v>1.5879573000000001E-2</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903">
         <v>1.2890197000000001E-2</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904">
         <v>1.37947295E-2</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905">
         <v>-0.17384443999999999</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>1.493207E-2</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>-9.8341869999999994E-3</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>1.905836E-2</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>5.1488009999999997E-3</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>-2.5505417000000002E-3</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>7.6099490000000004E-3</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>3.8351003000000002E-2</v>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>1.9082244000000002E-2</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>3.6237962999999998E-2</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>3.9683267000000001E-2</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>5.3900839999999998E-2</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917" s="1">
         <v>-2.0637399000000001E-5</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>-6.5147209999999997E-2</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>5.7792243E-2</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>4.4197667000000003E-2</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>5.7460999999999998E-2</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>5.3054563999999999E-2</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>4.6051092000000002E-2</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>5.8352029999999999E-2</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>6.2045330000000003E-2</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>6.2191351999999998E-2</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>5.3197330000000001E-2</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928">
         <v>5.2387916E-2</v>
       </c>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929">
         <v>5.1669962999999999E-2</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930">
         <v>4.6217880000000003E-2</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>4.8501602999999997E-2</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>6.5223895000000004E-2</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>5.7468279999999997E-2</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>6.3449405E-2</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>4.4429146000000003E-2</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936">
         <v>6.4341949999999995E-2</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>4.745568E-2</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938">
         <v>5.3424604000000001E-2</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>6.2334609999999999E-2</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940">
         <v>4.7107945999999998E-2</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941">
         <v>4.7507649999999998E-2</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942">
         <v>4.9728944999999997E-2</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>5.3385960000000001E-4</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>4.4464999999999998E-2</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945">
         <v>2.9033219999999998E-2</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946">
         <v>-0.11116703</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947">
         <v>4.5686445999999999E-2</v>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948">
         <v>2.4185102E-2</v>
       </c>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>2.1094272000000001E-2</v>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>2.9639929999999998E-2</v>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951">
         <v>2.2183135E-2</v>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>2.2916184999999999E-2</v>
       </c>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953">
         <v>-1.2685231999999999E-2</v>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>-2.1212291000000001E-2</v>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955">
         <v>-1.2149425E-2</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>4.386019E-2</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>-3.5553128000000003E-2</v>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>3.0592177000000002E-2</v>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959">
         <v>2.2726172999999999E-3</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960">
         <v>1.1128979000000001E-2</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961">
         <v>-8.0644010000000006E-3</v>
       </c>
